--- a/Packages.xlsx
+++ b/Packages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radhika Sood\Documents\DAM_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A7D59C-ED49-4CF0-8860-B8184358C03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591093E4-AB09-4199-A159-8BBDFB6F0DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BEC722C7-C710-4B02-8D5B-00CAB5277917}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Package</t>
   </si>
@@ -83,17 +83,53 @@
     <t>Collection of R packages designed for data science that works harmoniously with other packages</t>
   </si>
   <si>
-    <t>To create the coorelation plot</t>
-  </si>
-  <si>
     <t>To display table in a fancy way</t>
+  </si>
+  <si>
+    <t>To create the correlation plot</t>
+  </si>
+  <si>
+    <t>library(readxl)</t>
+  </si>
+  <si>
+    <t>To read the excel data</t>
+  </si>
+  <si>
+    <t>library(gridExtra)</t>
+  </si>
+  <si>
+    <t>library(ROCR)</t>
+  </si>
+  <si>
+    <t>library(leaps)</t>
+  </si>
+  <si>
+    <t>library(PRROC)</t>
+  </si>
+  <si>
+    <t>library(boot)</t>
+  </si>
+  <si>
+    <t>To lay out the plot together in same row</t>
+  </si>
+  <si>
+    <t>To find performance of the model</t>
+  </si>
+  <si>
+    <t>To perform an exhaustive search for the best subsets of the variables in x </t>
+  </si>
+  <si>
+    <t>To make PR and ROC curve</t>
+  </si>
+  <si>
+    <t>To add bootstraping to the file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +141,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,9 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E7F9A3-FA9A-491F-8E57-B3A39E962258}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -528,7 +572,55 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
